--- a/data/testdata模板.xlsx
+++ b/data/testdata模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\interface_auto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650F58D6-8B5A-480E-83C1-09E74A0CEC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F29928-B61F-4AF7-83B8-C08FCFBF7B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="555" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="16" r:id="rId1"/>
@@ -20,74 +20,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库校验结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.1</t>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验状态码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置条件(要执行的sql)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后置条件(需要把响应参数拼接到sql)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">#1、会获取接口请求的响应值中使用jsonpath取值，然后拼接sql执行
+#2、key为jsonpath格式（例:$.data）取值{data:'2222'}，value为拼接的sql	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsonpath格式（例:$.data）取值{data:'2222'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一为json格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_caseCollectConcel_01
+test_caseCollectConcel_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"$.data": "delete from tablewhere id="
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是
+否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$cache{v_code}    获取缓存，key为v_code的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> #列表
+#多个sql逗号分离
+#会匹配前6个字段执行sql的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单条语句，查询数量
+多条则用列表['sql','sql']，同时结果对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库校验语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验字段1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验内容1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验错误信息1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验字段2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验内容2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验错误信息2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联用例数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后置条件(要执行的sql)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案源收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消收藏案源信息接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_caseCollectConcel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库校验结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>案源收藏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消收藏案源信息接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xxxxx/mall-lawyer/case/collect/concel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"Content-Type":"application/form-data",
+	"authorization": $cache{token}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "caseId" : $cache{v_code}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -95,208 +231,34 @@
 	"message": "操作成功",
 	"data": "取消成功"
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_caseCollectConcel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2.1</t>
-  </si>
-  <si>
-    <t>用例优先级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验字段1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验字段2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from table where case_id=1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>$.code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>$.message</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库校验语句</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>code不一致</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>message不一致</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验状态码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验内容1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验错误信息1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验内容2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验错误信息2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置条件(要执行的sql)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置条件(要执行的接口请求)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后置条件(要执行的sql)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后置条件(需要把响应参数拼接到sql)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">#1、会获取接口请求的响应值中使用jsonpath取值，然后拼接sql执行
-#2、key为jsonpath格式（例:$.data）取值{data:'2222'}，value为拼接的sql	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsonpath格式（例:$.data）取值{data:'2222'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统一为json格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xxxxx/mall-lawyer/case/collect/concel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_caseCollectConcel_01
-test_caseCollectConcel_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from table where case_id=1;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"$.data": "delete from tablewhere id="
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否运行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是
-否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "caseId" : $cache{v_code}
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_id  当为self，只执行sql；为其他，则执行指定的用例（例：caseCollectConcel，执行caseCollectConcel用例）
-"dependent_type":  填sqlData（从数据库获取数据） 或response（从执行用例的响应结果获取数据）
-"dependent_sql": "select id from table where user_id=14 and case_id=9;",    #单条sql语句  不用时填null
-"jsonpath": null,    从响应结果获取数据时用到，使用方式：$.code ，不用时填null
-"set_cache": "v_code",    #设置缓存,使用方式见“请求参数”
-"replace_key": {"title": "自动化测试_删除", "name": "张三"}， #替换依赖接口用例的请求参数，json格式，不用时填null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$cache{v_code}    获取缓存，key为v_code的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> #列表
-#多个sql逗号分离
-#会匹配前6个字段执行sql的方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单条语句，查询数量
-多条则用列表['sql','sql']，同时结果对应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"Content-Type":"application/form-data",
-	"authorization": $cache{token}
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/json  ：json =   json格式传参
-application/form-data： params= （get请求拼接到url使用）
-application/x-www-form-urlencoded： data 
-params是用来发送查询字符串，而data是用来发送正文的。post方法和get方法的特性是：这两种参数post方法都可以用，get方法只能发查询字符串，不能发送正文。
-Authorization 为$cache{token} 代表从缓存读取token</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-	{
-		"case_id": "caseCollectConcel",
-		"replace_key": {
-			"caseId": 18888
-		}
-	}
-]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#case_id 传用例（从缓存读取用例数据）
-#replace_key （要替换用例的请求参数值（第一层））
-# 可执行多个前置请求用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -306,7 +268,7 @@
 		"dependent_data": [
 			{
 				"dependent_type": "sqlData",
-				"dependent_sql": "select id from table where user_id=3 and case_id=1;",
+                                                                "dependent_sql": "select id from table where remark='自动化测试_删除';",
 				"jsonpath": null,
 				"set_cache": "login_02_v_code",
 				"replace_key": {
@@ -321,14 +283,12 @@
 		"dependent_data": [
 			{
 				"dependent_type": "response",
-				"dependent_sql": null,
 				"jsonpath": "$.code",
 				"set_cache": "v_code",
 				"replace_key": null
 			},
 			{
 				"dependent_type": "response",
-				"dependent_sql": null,
 				"jsonpath": "$.message",
 				"set_cache": "v_message",
 				"replace_key": null
@@ -339,24 +299,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>["delete from table where user_id=3 and case_id=1"]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>["delete from case_collect_info where user_id=393014 and case_id=18995"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/json  ：json =   json格式传参
+application/form-data： params= （get请求拼接到url使用）
+application/x-www-form-urlencoded： data 
+params是用来发送查询字符串，而data是用来发送正文的。post方法和get方法的特性是：这两种参数post方法都可以用，get方法只能发查询字符串，不能发送正文。
+Authorization 为$cache{token} 代表从缓存读取token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_id  当为self，只执行sql；为其他，则执行指定的用例（例：caseCollectConcel，执行caseCollectConcel用例）
+"dependent_type":  填sqlData（从数据库获取数据） 或response（从执行用例的响应结果获取数据）
+"dependent_sql": "select id from table where user_id=14 and case_id=9;",    #多个["",""],单个"",不用时填null
+"jsonpath": null,    从响应结果获取数据时用到，使用方式：$.code ，##多个["",""],单个"",不用时填null
+"set_cache": "v_code",    #设置缓存,使用方式见“请求参数”  #多个["",""],单个"",不用时填null
+"replace_key": {"title": "自动化测试_删除", "name": "张三"}， #替换依赖接口用例的请求参数，json格式，不用时填null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#前置条件，优先用例执行 
+#列表
+#多个sql逗号分离
+#会匹配前6个字段执行sql的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -411,19 +389,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -707,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D00D344-FF06-4406-AD62-B1FCBAAE2444}">
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -728,217 +706,208 @@
   <sheetData>
     <row r="1" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="R1" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P2" s="2">
         <v>0</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="S2" s="2">
         <v>200</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>58</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Y4" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
@@ -950,7 +919,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{F688C028-1E62-4A01-8A5B-9D9F192BBF18}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{A6791C25-BC0B-4924-B3DA-0E0A1EBF10EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/testdata模板.xlsx
+++ b/data/testdata模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\interface_auto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F29928-B61F-4AF7-83B8-C08FCFBF7B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7C7ACC-AAC7-4301-B8D6-93054590DFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="630" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="16" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>作者</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,16 +127,6 @@
   </si>
   <si>
     <t>$cache{v_code}    获取缓存，key为v_code的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> #列表
-#多个sql逗号分离
-#会匹配前6个字段执行sql的方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -299,10 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>["delete from case_collect_info where user_id=393014 and case_id=18995"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>application/json  ：json =   json格式传参
 application/form-data： params= （get请求拼接到url使用）
 application/x-www-form-urlencoded： data 
@@ -321,9 +307,28 @@
   </si>
   <si>
     <t>#前置条件，优先用例执行 
-#列表
+#列表或字段
 #多个sql逗号分离
 #会匹配前6个字段执行sql的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> #列表或字段
+#多个sql逗号分离
+#会匹配前6个字段执行sql的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["delete from tableo where user_id=4 and case_id=5"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["delete from table where user_id=4 and case_id=95"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量
+多条则用列表[1,2']，和语句对应</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,9 +409,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -686,7 +689,7 @@
   <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -727,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>22</v>
@@ -748,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>8</v>
@@ -757,31 +760,31 @@
         <v>14</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="Y1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>16</v>
@@ -795,76 +798,76 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="P2" s="2">
         <v>0</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S2" s="2">
         <v>200</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="Y2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>21</v>
@@ -878,44 +881,45 @@
         <v>24</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Y4" s="7" t="s">
+      <c r="X4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
       <c r="AB4" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="X4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/testdata模板.xlsx
+++ b/data/testdata模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\interface_auto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7C7ACC-AAC7-4301-B8D6-93054590DFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0850049-AD46-42DC-8AE1-1E9B28D49F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="630" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2730" windowWidth="28800" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="16" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>作者</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,31 +85,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后置条件(需要把响应参数拼接到sql)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">#1、会获取接口请求的响应值中使用jsonpath取值，然后拼接sql执行
-#2、key为jsonpath格式（例:$.data）取值{data:'2222'}，value为拼接的sql	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jsonpath格式（例:$.data）取值{data:'2222'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统一为json格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>test_caseCollectConcel_01
 test_caseCollectConcel_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"$.data": "delete from tablewhere id="
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -297,8 +278,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>将请求或响应设置缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后置条件(执行接口)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["delete from case_collect_info where user_id=393014 and case_id=18995"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["delete from case_collect_info where user_id=393014 and case_id=$td{caseId}"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+	{
+		"case_id": "lottery_time",
+		"replace_key": {
+			"platform": "XIAOFA_YOULV"
+		}
+	}
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#前置条件，优先用例执行 
+#列表
+#多个sql逗号分离
+#会匹配前6个字段执行sql的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> #列表
+#多个sql逗号分离
+#会匹配前6个字段执行sql的方法
+#可替换缓存，格式$td{caseId}，td代表后置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+	{
+		"type": "request",
+		"jsonpath": ["$.caseId"],
+		"set_cache": ["test_a"]
+	},
+	{
+		"type": "response",
+		"jsonpath": [
+			"$.code"
+		],
+		"set_cache": [
+			"test_b"
+		]
+	}
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>case_id  当为self，只执行sql；为其他，则执行指定的用例（例：caseCollectConcel，执行caseCollectConcel用例）
-"dependent_type":  填sqlData（从数据库获取数据） 或response（从执行用例的响应结果获取数据）
+"dependent_type":  填sqlData（从数据库获取数据） 或response（从执行用例的响应结果获取数据）、request
 "dependent_sql": "select id from table where user_id=14 and case_id=9;",    #多个["",""],单个"",不用时填null
 "jsonpath": null,    从响应结果获取数据时用到，使用方式：$.code ，##多个["",""],单个"",不用时填null
 "set_cache": "v_code",    #设置缓存,使用方式见“请求参数”  #多个["",""],单个"",不用时填null
@@ -306,29 +351,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#前置条件，优先用例执行 
-#列表或字段
-#多个sql逗号分离
-#会匹配前6个字段执行sql的方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> #列表或字段
-#多个sql逗号分离
-#会匹配前6个字段执行sql的方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["delete from tableo where user_id=4 and case_id=5"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["delete from table where user_id=4 and case_id=95"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量
-多条则用列表[1,2']，和语句对应</t>
+    <t>从当前用例的request或response获取数据并且存入缓存
+#使用jsonpath获取对应的caseId，然后存在test_a缓存
+"jsonpath": ["$.caseId"],
+"set_cache": ["test_a"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#case_id：为用例id
+#replace_key：更改后置用例的请求参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A：前置条件（要执行的sql）
+B：关联用例数据
+1、当只有sql需要执行时，只填A
+2、当有sql 且需要请求时，需要加上case_id为self，否则不会执行sql
+3、当只有请求，只填B
+4、jsonpath和set_cache数量要对上，否则报错
+5、假如两个sql需要执行，但只要其中一个需要用到缓存C。处理：另一个也一并存入缓存D，但不使用该缓存D，否则只设置一个会报错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -409,7 +450,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -688,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D00D344-FF06-4406-AD62-B1FCBAAE2444}">
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -702,9 +751,11 @@
     <col min="15" max="15" width="22.375" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
     <col min="18" max="18" width="11.375" customWidth="1"/>
-    <col min="25" max="25" width="23.5" customWidth="1"/>
-    <col min="26" max="26" width="25.125" customWidth="1"/>
-    <col min="27" max="27" width="14.625" customWidth="1"/>
+    <col min="23" max="23" width="29.875" customWidth="1"/>
+    <col min="24" max="24" width="28.75" customWidth="1"/>
+    <col min="25" max="26" width="23.5" customWidth="1"/>
+    <col min="27" max="27" width="24.125" customWidth="1"/>
+    <col min="28" max="28" width="29.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -730,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>3</v>
@@ -751,7 +802,7 @@
         <v>7</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>8</v>
@@ -760,34 +811,37 @@
         <v>14</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="X1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>16</v>
+      <c r="AB1" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -798,132 +852,138 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="P2" s="2">
         <v>0</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S2" s="2">
         <v>200</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="Y2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="AA2" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="Z3" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="X4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y4" s="7"/>
+      <c r="X4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="9"/>
       <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
+      <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="X4:Y4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{A6791C25-BC0B-4924-B3DA-0E0A1EBF10EF}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{57A53D91-2892-4414-AACE-B79D54A620A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
